--- a/Datos/login.xlsx
+++ b/Datos/login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85518D5D-E909-4E61-BA15-82251DDC53A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E9800-3C7D-4D04-8105-060041F09A19}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>correo</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>jonathanoleaz@yahoo.com.mx</t>
   </si>
   <si>
@@ -815,6 +812,9 @@
   </si>
   <si>
     <t>esdoc300@ipn.mx</t>
+  </si>
+  <si>
+    <t>passwordhash</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,18 +1187,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1283,10 +1283,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
@@ -1547,10 +1547,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
         <v>34</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
@@ -1580,10 +1580,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1">
         <v>37</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1">
         <v>38</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1">
         <v>39</v>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>40</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
         <v>41</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1">
         <v>42</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1">
         <v>43</v>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
         <v>44</v>
@@ -1679,10 +1679,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1">
         <v>45</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
         <v>46</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1">
         <v>47</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1">
         <v>49</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
@@ -1745,10 +1745,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1">
         <v>51</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1">
         <v>52</v>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1">
         <v>53</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1">
         <v>54</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
         <v>55</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
         <v>56</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>57</v>
@@ -1822,10 +1822,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>58</v>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>59</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>60</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1">
         <v>61</v>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1">
         <v>62</v>
@@ -1877,10 +1877,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1">
         <v>63</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1">
         <v>64</v>
@@ -1899,10 +1899,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1">
         <v>65</v>
@@ -1910,10 +1910,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1">
         <v>67</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1">
         <v>68</v>
@@ -1943,10 +1943,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1">
         <v>69</v>
@@ -1954,10 +1954,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1">
         <v>70</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1">
         <v>71</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1">
         <v>72</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1">
         <v>73</v>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1">
         <v>74</v>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1">
         <v>75</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>76</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1">
         <v>77</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1">
         <v>78</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1">
         <v>79</v>
@@ -2064,10 +2064,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="1">
         <v>80</v>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1">
         <v>81</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1">
         <v>82</v>
@@ -2097,10 +2097,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>83</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1">
         <v>84</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1">
         <v>85</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1">
         <v>86</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" s="1">
         <v>87</v>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
         <v>88</v>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" s="1">
         <v>89</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1">
         <v>90</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" s="1">
         <v>91</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="1">
         <v>92</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="1">
         <v>93</v>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1">
         <v>94</v>
@@ -2229,10 +2229,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" s="1">
         <v>95</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1">
         <v>96</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" s="1">
         <v>97</v>
@@ -2262,10 +2262,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" s="1">
         <v>98</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
         <v>100</v>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>101</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>102</v>
@@ -2317,10 +2317,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>103</v>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" s="1">
         <v>104</v>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1">
         <v>105</v>
@@ -2350,10 +2350,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1">
         <v>106</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1">
         <v>107</v>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1">
         <v>108</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1">
         <v>109</v>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" s="1">
         <v>110</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112" s="1">
         <v>111</v>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1">
         <v>112</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1">
         <v>113</v>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1">
         <v>114</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="1">
         <v>115</v>
@@ -2460,10 +2460,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" s="1">
         <v>116</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118" s="1">
         <v>117</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119" s="1">
         <v>118</v>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="1">
         <v>119</v>
@@ -2504,10 +2504,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1">
         <v>120</v>
@@ -2515,10 +2515,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1">
         <v>121</v>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123" s="1">
         <v>122</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C124" s="1">
         <v>123</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C125" s="1">
         <v>124</v>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126" s="1">
         <v>125</v>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C127" s="1">
         <v>126</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C128" s="1">
         <v>127</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129" s="1">
         <v>128</v>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130" s="1">
         <v>129</v>
@@ -2614,10 +2614,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" s="1">
         <v>130</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C132" s="1">
         <v>131</v>
@@ -2636,10 +2636,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133" s="1">
         <v>132</v>
@@ -2647,10 +2647,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" s="1">
         <v>133</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" s="1">
         <v>134</v>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136" s="1">
         <v>135</v>
@@ -2680,10 +2680,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137" s="1">
         <v>136</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138" s="1">
         <v>137</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139" s="1">
         <v>138</v>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140" s="1">
         <v>139</v>
@@ -2724,10 +2724,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141" s="1">
         <v>140</v>
@@ -2735,10 +2735,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142" s="1">
         <v>141</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143" s="1">
         <v>142</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144" s="1">
         <v>143</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" s="1">
         <v>144</v>
@@ -2779,10 +2779,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" s="1">
         <v>145</v>
@@ -2790,10 +2790,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C147" s="1">
         <v>146</v>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C148" s="1">
         <v>147</v>
@@ -2812,10 +2812,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C149" s="1">
         <v>148</v>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150" s="1">
         <v>149</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151" s="1">
         <v>150</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152" s="1">
         <v>151</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153" s="1">
         <v>152</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154" s="1">
         <v>153</v>
@@ -2878,10 +2878,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155" s="1">
         <v>154</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C156" s="1">
         <v>155</v>
@@ -2900,10 +2900,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C157" s="1">
         <v>156</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158" s="1">
         <v>157</v>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C159" s="1">
         <v>158</v>
@@ -2933,10 +2933,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C160" s="1">
         <v>159</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C161" s="1">
         <v>160</v>
@@ -2955,10 +2955,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162" s="1">
         <v>161</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" s="1">
         <v>162</v>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="1">
         <v>163</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" s="1">
         <v>164</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166" s="1">
         <v>165</v>
@@ -3010,10 +3010,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" s="1">
         <v>166</v>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168" s="1">
         <v>167</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169" s="1">
         <v>168</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="1">
         <v>169</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" s="1">
         <v>170</v>
@@ -3065,10 +3065,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172" s="1">
         <v>171</v>
@@ -3076,10 +3076,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" s="1">
         <v>172</v>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174" s="1">
         <v>173</v>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C175" s="1">
         <v>174</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176" s="1">
         <v>175</v>
@@ -3120,10 +3120,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177" s="1">
         <v>176</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178" s="1">
         <v>177</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179" s="1">
         <v>178</v>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180" s="1">
         <v>179</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181" s="1">
         <v>180</v>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" s="1">
         <v>181</v>
@@ -3186,10 +3186,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" s="1">
         <v>182</v>
@@ -3197,10 +3197,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184" s="1">
         <v>183</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185" s="1">
         <v>184</v>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186" s="1">
         <v>185</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="1">
         <v>186</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188" s="1">
         <v>187</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" s="1">
         <v>188</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" s="1">
         <v>189</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191" s="1">
         <v>190</v>
@@ -3285,10 +3285,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C192" s="1">
         <v>191</v>
@@ -3296,10 +3296,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" s="1">
         <v>192</v>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194" s="1">
         <v>193</v>
@@ -3318,10 +3318,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" s="1">
         <v>194</v>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" s="1">
         <v>195</v>
@@ -3340,10 +3340,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C197" s="1">
         <v>196</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C198" s="1">
         <v>197</v>
@@ -3362,10 +3362,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C199" s="1">
         <v>198</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C200" s="1">
         <v>199</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C201" s="1">
         <v>200</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202" s="1">
         <v>201</v>
@@ -3406,10 +3406,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C203" s="1">
         <v>202</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204" s="1">
         <v>203</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C205" s="1">
         <v>204</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C206" s="1">
         <v>205</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C207" s="1">
         <v>206</v>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C208" s="1">
         <v>207</v>
@@ -3472,10 +3472,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C209" s="1">
         <v>208</v>
@@ -3483,10 +3483,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" s="1">
         <v>209</v>
@@ -3494,10 +3494,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C211" s="1">
         <v>210</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C212" s="1">
         <v>211</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" s="1">
         <v>212</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214" s="1">
         <v>213</v>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C215" s="1">
         <v>214</v>
@@ -3549,10 +3549,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C216" s="1">
         <v>215</v>
@@ -3560,10 +3560,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C217" s="1">
         <v>216</v>
@@ -3571,10 +3571,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C218" s="1">
         <v>217</v>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C219" s="1">
         <v>218</v>
@@ -3593,10 +3593,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C220" s="1">
         <v>219</v>
@@ -3604,10 +3604,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221" s="1">
         <v>220</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222" s="1">
         <v>221</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C223" s="1">
         <v>222</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C224" s="1">
         <v>223</v>
@@ -3648,10 +3648,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C225" s="1">
         <v>224</v>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226" s="1">
         <v>225</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C227" s="1">
         <v>226</v>
@@ -3681,10 +3681,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C228" s="1">
         <v>227</v>
@@ -3692,10 +3692,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229" s="1">
         <v>228</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230" s="1">
         <v>229</v>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231" s="1">
         <v>230</v>
@@ -3725,10 +3725,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C232" s="1">
         <v>231</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C233" s="1">
         <v>232</v>
@@ -3747,10 +3747,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234" s="1">
         <v>233</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C235" s="1">
         <v>234</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" s="1">
         <v>235</v>
@@ -3780,10 +3780,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C237" s="1">
         <v>236</v>
@@ -3791,10 +3791,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C238" s="1">
         <v>237</v>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C239" s="1">
         <v>238</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C240" s="1">
         <v>239</v>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241" s="1">
         <v>240</v>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242" s="1">
         <v>241</v>
@@ -3846,10 +3846,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C243" s="1">
         <v>242</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C244" s="1">
         <v>243</v>
@@ -3868,10 +3868,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C245" s="1">
         <v>244</v>
@@ -3879,10 +3879,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C246" s="1">
         <v>245</v>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C247" s="1">
         <v>246</v>
@@ -3901,10 +3901,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C248" s="1">
         <v>247</v>
@@ -3912,10 +3912,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C249" s="1">
         <v>248</v>
@@ -3923,10 +3923,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250" s="1">
         <v>249</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C251" s="1">
         <v>250</v>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C252" s="1">
         <v>251</v>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C253" s="1">
         <v>252</v>
@@ -3967,10 +3967,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254" s="1">
         <v>253</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" s="1">
         <v>254</v>
@@ -3989,10 +3989,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C256" s="1">
         <v>255</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257" s="1">
         <v>256</v>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C258" s="1">
         <v>257</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C259" s="1">
         <v>258</v>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260" s="1">
         <v>259</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" s="1">
         <v>260</v>
@@ -4055,10 +4055,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C262" s="1">
         <v>261</v>

--- a/Datos/login.xlsx
+++ b/Datos/login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E9800-3C7D-4D04-8105-060041F09A19}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9C2209-DE0D-4151-AF7B-9E5C6C12823B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,10 +811,10 @@
     <t>esdoc233@ipn.mx</t>
   </si>
   <si>
-    <t>esdoc300@ipn.mx</t>
-  </si>
-  <si>
     <t>passwordhash</t>
+  </si>
+  <si>
+    <t>joleaz1200@alumno.ipn.mx</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -888,6 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,7 +1172,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,15 +1188,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>263</v>
+      <c r="A2" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
